--- a/SampleSpreadSheetApp/assets/files/Child2WorkbookData.xlsx
+++ b/SampleSpreadSheetApp/assets/files/Child2WorkbookData.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$C$6" sqref="$C$6:$C$6"/>
+      <selection activeCell="$F$9" sqref="$F$9:$F$9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,19 +500,19 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -554,15 +554,15 @@
       </c>
       <c r="C4" s="1">
         <f>SUM(C1:C3)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1">
         <f>SUM(D1:D3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <f>SUM(E1:E3)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
         <f>SUM(F1:F3)</f>
@@ -570,7 +570,7 @@
       </c>
       <c r="G4" s="1">
         <f>SUM(G1:G3)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(H1:H3)</f>

--- a/SampleSpreadSheetApp/assets/files/Child2WorkbookData.xlsx
+++ b/SampleSpreadSheetApp/assets/files/Child2WorkbookData.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>Draft Beer</t>
   </si>
   <si>
     <t>Products</t>
   </si>
   <si>
+    <t>pa</t>
+  </si>
+  <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>qp</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>Total</t>
@@ -447,10 +459,10 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$F$9" sqref="$F$9:$F$9"/>
+      <selection activeCell="$G$12" sqref="$G$12:$G$12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,36 +480,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -520,7 +532,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -545,36 +557,140 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <f>SUM(B1:B3)</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUM(C1:C3)</f>
-        <v>110</v>
-      </c>
-      <c r="D4" s="1">
-        <f>SUM(D1:D3)</f>
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <f>SUM(E1:E3)</f>
-        <v>100</v>
-      </c>
-      <c r="F4" s="1">
-        <f>SUM(F1:F3)</f>
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <f>SUM(G1:G3)</f>
-        <v>210</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SUM(H1:H3)</f>
-        <v>0</v>
+      <c r="B5" s="5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1098</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90</v>
+      </c>
+      <c r="F5" s="5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
+        <v>123</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>345</v>
+      </c>
+      <c r="F6" s="5">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
+        <v>234</v>
+      </c>
+      <c r="E7" s="5">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(B1:B7)</f>
+        <v>410</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUM(C1:C7)</f>
+        <v>4256</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(D1:D7)</f>
+        <v>1374</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(E1:E7)</f>
+        <v>568</v>
+      </c>
+      <c r="F8" s="1">
+        <f>SUM(F1:F7)</f>
+        <v>378</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUM(G1:G7)</f>
+        <v>366</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM(H1:H7)</f>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
